--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/20/seed5/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.4232</v>
+        <v>16.4607</v>
       </c>
     </row>
     <row r="3">
@@ -488,10 +488,10 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.812500000000002</v>
+        <v>-8.606299999999997</v>
       </c>
       <c r="E3" t="n">
-        <v>16.1671</v>
+        <v>16.4471</v>
       </c>
     </row>
     <row r="4">
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.336400000000001</v>
+        <v>-7.520000000000005</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -593,7 +593,7 @@
         <v>-7.01</v>
       </c>
       <c r="E9" t="n">
-        <v>17.3654</v>
+        <v>17.4412</v>
       </c>
     </row>
     <row r="10">
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.400500000000003</v>
+        <v>5.659600000000003</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.901799999999997</v>
+        <v>4.863399999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.386699999999998</v>
+        <v>-7.344400000000003</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.560999999999996</v>
+        <v>5.282299999999997</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.49720000000001</v>
+        <v>16.5492</v>
       </c>
     </row>
     <row r="16">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.33460000000001</v>
+        <v>16.3011</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.92609999999999</v>
+        <v>16.08379999999999</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.16980000000001</v>
+        <v>17.23970000000001</v>
       </c>
     </row>
     <row r="26">
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.728600000000005</v>
+        <v>-8.8422</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.202100000000004</v>
+        <v>6.806500000000002</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.45019999999999</v>
+        <v>16.55439999999999</v>
       </c>
     </row>
     <row r="28">
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.1375</v>
+        <v>6.160900000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -916,7 +916,7 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.6195</v>
+        <v>16.81</v>
       </c>
     </row>
     <row r="29">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.36530000000001</v>
+        <v>15.6268</v>
       </c>
     </row>
     <row r="31">
@@ -958,13 +958,13 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.9491</v>
+        <v>6.17</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.6577</v>
+        <v>-8.770399999999997</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.681399999999996</v>
+        <v>6.329400000000001</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>14.89159999999999</v>
+        <v>15.5584</v>
       </c>
     </row>
     <row r="33">
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-9.057799999999993</v>
+        <v>-9.164599999999993</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.883200000000002</v>
+        <v>9.795700000000005</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.338099999999995</v>
+        <v>-7.926499999999995</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.393799999999995</v>
+        <v>5.270599999999999</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.378600000000007</v>
+        <v>-7.402200000000007</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.914899999999996</v>
+        <v>-7.957999999999995</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>15.8812</v>
+        <v>16.11669999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.444800000000003</v>
+        <v>-7.604100000000003</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>7.087599999999997</v>
+        <v>7.253599999999998</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.45829999999999</v>
+        <v>16.5575</v>
       </c>
     </row>
     <row r="48">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.542099999999997</v>
+        <v>-7.636099999999996</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.876500000000002</v>
+        <v>4.752499999999999</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.154399999999998</v>
+        <v>5.257599999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.079599999999999</v>
+        <v>5.161799999999999</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.7568</v>
+        <v>-8.5403</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.85140000000001</v>
+        <v>16.8529</v>
       </c>
     </row>
     <row r="59">
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.7019</v>
+        <v>16.50370000000001</v>
       </c>
     </row>
     <row r="63">
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.696499999999999</v>
+        <v>5.579099999999999</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.263799999999999</v>
+        <v>5.130400000000001</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.022100000000004</v>
+        <v>5.207500000000002</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.058499999999999</v>
+        <v>8.266399999999997</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1749,7 +1749,7 @@
         <v>-6.2</v>
       </c>
       <c r="E77" t="n">
-        <v>16.99470000000002</v>
+        <v>17.11690000000002</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.56470000000002</v>
+        <v>16.51090000000002</v>
       </c>
     </row>
     <row r="79">
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-6.991699999999993</v>
+        <v>-7.022099999999995</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1842,13 +1842,13 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.686199999999997</v>
+        <v>5.511799999999995</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.251599999999993</v>
+        <v>-9.035199999999996</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.6384</v>
+        <v>16.5579</v>
       </c>
     </row>
     <row r="85">
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.040200000000002</v>
+        <v>5.117100000000002</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.23620000000001</v>
+        <v>17.35310000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.544100000000001</v>
+        <v>5.415800000000001</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.97560000000001</v>
+        <v>17.99790000000001</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.09120000000001</v>
+        <v>18.09380000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.058199999999999</v>
+        <v>5.786900000000002</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.57839999999999</v>
+        <v>16.0136</v>
       </c>
     </row>
     <row r="97">
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>4.691199999999995</v>
+        <v>4.915299999999998</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.767799999999998</v>
+        <v>-8.547700000000004</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,10 +2171,10 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.382299999999998</v>
+        <v>-7.441499999999998</v>
       </c>
       <c r="E102" t="n">
-        <v>16.61880000000001</v>
+        <v>16.68990000000001</v>
       </c>
     </row>
   </sheetData>
